--- a/connexion Pin arduino bp sans radio.xlsx
+++ b/connexion Pin arduino bp sans radio.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="51">
   <si>
     <t>ARDUINO</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>Bouton poussoir</t>
+  </si>
+  <si>
+    <t>entrée npn</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -469,7 +472,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -480,6 +482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,7 +492,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,7 +789,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -802,15 +804,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickTop="1">
-      <c r="A1" s="16"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="18"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="26"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="15"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="14"/>
       <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
@@ -819,12 +821,12 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="19"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="5"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="22"/>
+      <c r="F2" s="21"/>
       <c r="J2" s="3" t="s">
         <v>30</v>
       </c>
@@ -892,8 +894,8 @@
       <c r="E5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>25</v>
+      <c r="F5" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -913,7 +915,7 @@
       <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -933,7 +935,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="13"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="24" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -965,7 +967,7 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="22" t="s">
         <v>39</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -1081,7 +1083,7 @@
       <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -1101,7 +1103,7 @@
       <c r="B16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -1113,7 +1115,7 @@
       <c r="F16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="24"/>
+      <c r="G16" s="23"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
